--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>0.04509736321733607</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.934643797138966</v>
+        <v>-1.936165167249692</v>
       </c>
       <c r="F2" t="n">
-        <v>0.393102843932273</v>
+        <v>0.3919260451710005</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2307100031489232</v>
+        <v>-0.2317422571491956</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.08085768332314394</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.948143401787507</v>
+        <v>-1.949256688456825</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3117416640663857</v>
+        <v>0.3099282843374771</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2103204315593832</v>
+        <v>-0.2117337581113828</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1074247232534083</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.018498009120079</v>
+        <v>-2.022291944084306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.284486946353393</v>
+        <v>0.280633879441485</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2276862435526513</v>
+        <v>-0.22892144423756</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1157046982769642</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.081708601143835</v>
+        <v>-2.08226195937029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2605275571815813</v>
+        <v>0.2578001873477638</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2343192420296495</v>
+        <v>-0.2342798207311949</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1051080934839407</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.048943661935753</v>
+        <v>-2.046379817488118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2464103521905851</v>
+        <v>0.2427251908091315</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.22218916249038</v>
+        <v>-0.2222198235002891</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.08259390899450365</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.914395850214244</v>
+        <v>-1.907483252527837</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2639645103875803</v>
+        <v>0.2630695009078533</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.209172833759929</v>
+        <v>-0.2096823905436561</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.06113247503491696</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.642978020282635</v>
+        <v>-1.635315687901546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2624285397959444</v>
+        <v>0.264913541646671</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1850688998271172</v>
+        <v>-0.1884970927445709</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.05261124589129566</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.266554261676918</v>
+        <v>-1.25976065790992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2467739041652213</v>
+        <v>0.2474002647962212</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1279415981741326</v>
+        <v>-0.1323757642262223</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.06614655761326468</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7799640344197757</v>
+        <v>-0.7763153742405948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2716385231533965</v>
+        <v>0.272461990276669</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02790494317743219</v>
+        <v>-0.03170398830997662</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1076814914141623</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2456389948784646</v>
+        <v>-0.2449279514581921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1641045212098799</v>
+        <v>0.1601521710277901</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06029656199436231</v>
+        <v>0.05599672036663619</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1824034727680021</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4235068853773557</v>
+        <v>0.4269584390642638</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04218758552282172</v>
+        <v>0.03738548735182301</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1591082366427903</v>
+        <v>0.15377322091861</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2919981310241431</v>
       </c>
       <c r="E13" t="n">
-        <v>1.108072333521263</v>
+        <v>1.106312975571718</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1224415970156795</v>
+        <v>-0.1258975308468604</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2913827534867548</v>
+        <v>0.2881268462440284</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4355621191464393</v>
       </c>
       <c r="E14" t="n">
-        <v>1.824973466734525</v>
+        <v>1.825516604624343</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3467385648853465</v>
+        <v>-0.356182155937344</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4377686351293519</v>
+        <v>0.4336001978298075</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6099237097130856</v>
       </c>
       <c r="E15" t="n">
-        <v>2.530324159500608</v>
+        <v>2.531578340810699</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6181162434944555</v>
+        <v>-0.6272415440626349</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6261498800107558</v>
+        <v>0.622660365073484</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8095582102513526</v>
       </c>
       <c r="E16" t="n">
-        <v>3.203089498973791</v>
+        <v>3.205701525008427</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9365074706308246</v>
+        <v>-0.9424265055913684</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7821910596785321</v>
+        <v>0.7793045446028056</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.02660297610123</v>
       </c>
       <c r="E17" t="n">
-        <v>3.861236836960796</v>
+        <v>3.864396381029523</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.196325948504209</v>
+        <v>-1.206852895239661</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9808612634565697</v>
+        <v>0.9774462109719342</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.254174222604167</v>
       </c>
       <c r="E18" t="n">
-        <v>4.401336366701651</v>
+        <v>4.403013961958106</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.555906592333204</v>
+        <v>-1.564097462123202</v>
       </c>
       <c r="G18" t="n">
-        <v>1.180327193444152</v>
+        <v>1.177115087644153</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.483169517587962</v>
       </c>
       <c r="E19" t="n">
-        <v>4.930263608450873</v>
+        <v>4.930631540569782</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.839736291085627</v>
+        <v>-1.852113118752261</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378058586299736</v>
+        <v>1.378536022025463</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.704257709200647</v>
       </c>
       <c r="E20" t="n">
-        <v>5.292631484085412</v>
+        <v>5.293450571064412</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.160161365212633</v>
+        <v>-2.172736029395584</v>
       </c>
       <c r="G20" t="n">
-        <v>1.58739298133377</v>
+        <v>1.587317058833043</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.905475966355516</v>
       </c>
       <c r="E21" t="n">
-        <v>5.60338957980251</v>
+        <v>5.60147691680342</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.477003481324547</v>
+        <v>-2.49136378432268</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768053491910449</v>
+        <v>1.76959676274254</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.074094575925121</v>
       </c>
       <c r="E22" t="n">
-        <v>5.841446040880901</v>
+        <v>5.841705929441082</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.786919859317237</v>
+        <v>-2.801734237271642</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89545436822696</v>
+        <v>1.895911363279415</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.198725898375353</v>
       </c>
       <c r="E23" t="n">
-        <v>5.99305743464086</v>
+        <v>5.997566063145586</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.037469951909533</v>
+        <v>-3.051214844637347</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014251181143747</v>
+        <v>2.016095221882564</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.274290595487481</v>
       </c>
       <c r="E24" t="n">
-        <v>6.083187663340745</v>
+        <v>6.086548694046017</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.271537561603561</v>
+        <v>-3.284016592636558</v>
       </c>
       <c r="G24" t="n">
-        <v>2.116593252075992</v>
+        <v>2.119587810710446</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.300562543114669</v>
       </c>
       <c r="E25" t="n">
-        <v>6.097539936074377</v>
+        <v>6.103383048534194</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.446641129146241</v>
+        <v>-3.459971368216238</v>
       </c>
       <c r="G25" t="n">
-        <v>2.172428411168522</v>
+        <v>2.172003537174068</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.281510054196208</v>
       </c>
       <c r="E26" t="n">
-        <v>6.045081868216119</v>
+        <v>6.049618237634572</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.612509892513924</v>
+        <v>-3.627462975036966</v>
       </c>
       <c r="G26" t="n">
-        <v>2.199010046711606</v>
+        <v>2.19810043675097</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.222495310796612</v>
       </c>
       <c r="E27" t="n">
-        <v>5.943332576808783</v>
+        <v>5.944623259321146</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.701496173534582</v>
+        <v>-3.718318117613987</v>
       </c>
       <c r="G27" t="n">
-        <v>2.201296482021969</v>
+        <v>2.203669060169696</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.128835426526474</v>
       </c>
       <c r="E28" t="n">
-        <v>5.870651382843348</v>
+        <v>5.871644215545166</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.768464929344337</v>
+        <v>-3.783569856868833</v>
       </c>
       <c r="G28" t="n">
-        <v>2.208862451229058</v>
+        <v>2.209758920756876</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.007704050570627</v>
       </c>
       <c r="E29" t="n">
-        <v>5.674121609566583</v>
+        <v>5.673739076966764</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.807389081423918</v>
+        <v>-3.824051880261413</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207368822032059</v>
+        <v>2.210145833500967</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.867452388523893</v>
       </c>
       <c r="E30" t="n">
-        <v>5.463030776679184</v>
+        <v>5.462200009315457</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.834875946783364</v>
+        <v>-3.856429176701359</v>
       </c>
       <c r="G30" t="n">
-        <v>2.161637195728616</v>
+        <v>2.164517870611979</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.717258388629262</v>
       </c>
       <c r="E31" t="n">
-        <v>5.184417099731532</v>
+        <v>5.181765652398441</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.73133079622421</v>
+        <v>-3.751026844970569</v>
       </c>
       <c r="G31" t="n">
-        <v>2.079305083882275</v>
+        <v>2.083293935266637</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.565581727742811</v>
       </c>
       <c r="E32" t="n">
-        <v>4.877964685834523</v>
+        <v>4.87704339548916</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.649786380322914</v>
+        <v>-3.670993578843363</v>
       </c>
       <c r="G32" t="n">
-        <v>1.93364630618895</v>
+        <v>1.936775189247768</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.41894599651505</v>
       </c>
       <c r="E33" t="n">
-        <v>4.596536036167599</v>
+        <v>4.595521302744417</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.513055066681451</v>
+        <v>-3.531253836110583</v>
       </c>
       <c r="G33" t="n">
-        <v>1.841333305593157</v>
+        <v>1.844216900572701</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.281687212889025</v>
       </c>
       <c r="E34" t="n">
-        <v>4.264440797649961</v>
+        <v>4.263188076387961</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.399564068527027</v>
+        <v>-3.413500227554751</v>
       </c>
       <c r="G34" t="n">
-        <v>1.716007157613827</v>
+        <v>1.715237712269918</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.155992089964798</v>
       </c>
       <c r="E35" t="n">
-        <v>3.920621372962326</v>
+        <v>3.923139955919143</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.281211110229877</v>
+        <v>-3.295475780078055</v>
       </c>
       <c r="G35" t="n">
-        <v>1.602970234415675</v>
+        <v>1.605322371890129</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.042928016834654</v>
       </c>
       <c r="E36" t="n">
-        <v>3.585362210231688</v>
+        <v>3.590930833650414</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.156384298697637</v>
+        <v>-3.17125853862377</v>
       </c>
       <c r="G36" t="n">
-        <v>1.456886582727896</v>
+        <v>1.455987193103897</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.941688359666039</v>
       </c>
       <c r="E37" t="n">
-        <v>3.23483678466251</v>
+        <v>3.23612162698251</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.015716695403084</v>
+        <v>-3.027191943373581</v>
       </c>
       <c r="G37" t="n">
-        <v>1.326069193878659</v>
+        <v>1.325866247194023</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8520093480293796</v>
       </c>
       <c r="E38" t="n">
-        <v>2.876443159931424</v>
+        <v>2.878783617021151</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.960209317106963</v>
+        <v>-2.968062185763916</v>
       </c>
       <c r="G38" t="n">
-        <v>1.180127166855698</v>
+        <v>1.18013008695188</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7714388666879683</v>
       </c>
       <c r="E39" t="n">
-        <v>2.532385747404971</v>
+        <v>2.533215054720607</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.820806845483182</v>
+        <v>-2.82966422722668</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079575114882907</v>
+        <v>1.079772221375179</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6979360506759724</v>
       </c>
       <c r="E40" t="n">
-        <v>2.21511583720242</v>
+        <v>2.21659340587042</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.703736539433895</v>
+        <v>-2.710695858659212</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9592905129614846</v>
+        <v>0.9591620287294846</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6289986962111395</v>
       </c>
       <c r="E41" t="n">
-        <v>1.882110988724146</v>
+        <v>1.883068780271782</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.574639817259794</v>
+        <v>-2.581802813193792</v>
       </c>
       <c r="G41" t="n">
-        <v>0.837332695927881</v>
+        <v>0.8373414562164264</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5625627040814916</v>
       </c>
       <c r="E42" t="n">
-        <v>1.550364701700235</v>
+        <v>1.549787982704326</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.510222495488902</v>
+        <v>-2.519605494545127</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7211143279396394</v>
+        <v>0.7210208848618213</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4977791635579263</v>
       </c>
       <c r="E43" t="n">
-        <v>1.285584980413942</v>
+        <v>1.285443355749124</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.429821297242787</v>
+        <v>-2.440121206500103</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6571101997784747</v>
+        <v>0.6564560982337477</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4339514903322448</v>
       </c>
       <c r="E44" t="n">
-        <v>1.017508470538378</v>
+        <v>1.019397772768014</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.315203871986227</v>
+        <v>-2.322949427108498</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5494973552380491</v>
+        <v>0.5489965587428675</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3710362205736521</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7978515355016188</v>
+        <v>0.8034727206516173</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.270759278074921</v>
+        <v>-2.277878472566192</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4427692998407142</v>
+        <v>0.4418626099762599</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3094450739768647</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5635254972954999</v>
+        <v>0.5690707599447712</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.179985168166945</v>
+        <v>-2.186630577052716</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3761516855968229</v>
+        <v>0.378581205620095</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2500891079140669</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3648231724594624</v>
+        <v>0.37031441332937</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.09105947914206</v>
+        <v>-2.099914670813421</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2952796218413901</v>
+        <v>0.2967922316635715</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1933834850081015</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2456890884336762</v>
+        <v>0.2535894086535831</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.986363080663224</v>
+        <v>-1.993469864745723</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2064371555576867</v>
+        <v>0.2089571985625951</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1403585945761133</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1170617717208016</v>
+        <v>0.1234597024551635</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.888251499074387</v>
+        <v>-1.897316937670839</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1538900247658826</v>
+        <v>0.154811315111246</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0921217576843046</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01190764816546622</v>
+        <v>0.01805737072437366</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.804208940889546</v>
+        <v>-1.813864968938771</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08762574215999135</v>
+        <v>0.08997641958635434</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04893774158781182</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07887814212723668</v>
+        <v>-0.07323797635205638</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.674691724865263</v>
+        <v>-1.684403964765987</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03014072872473405</v>
+        <v>0.03399379563664211</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01055210529297949</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1846396456883901</v>
+        <v>-0.1827576436992088</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.55477651511084</v>
+        <v>-1.565842219591837</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.007959226207528449</v>
+        <v>-0.006931352351528725</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02354151442928004</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3054104436240849</v>
+        <v>-0.30670404623263</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.441624248113507</v>
+        <v>-1.450574342910777</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07573173849132843</v>
+        <v>-0.07576969974169206</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0540852936160452</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3394835859216213</v>
+        <v>-0.3387900630784396</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.369906685888072</v>
+        <v>-1.378205599236797</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1398409901150385</v>
+        <v>-0.1404206292071292</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.08174783696853691</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4682481471550412</v>
+        <v>-0.4700148053450408</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.32591105676472</v>
+        <v>-1.335989768736263</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1508336921914901</v>
+        <v>-0.1539129336152165</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1069945432960526</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5491581721608376</v>
+        <v>-0.5542274591324726</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.23834321246438</v>
+        <v>-1.243224153232288</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2002271191069314</v>
+        <v>-0.2008812206516585</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1303402785856315</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6501365581761742</v>
+        <v>-0.6581799631089902</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.197422444620482</v>
+        <v>-1.202909305346117</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.230777165361105</v>
+        <v>-0.2343761839051949</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1521548207484599</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6732388991186226</v>
+        <v>-0.6822590762242565</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.156612640431493</v>
+        <v>-1.159337090169128</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2654445472316411</v>
+        <v>-0.2692012509695492</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1727080169597672</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7677448919469608</v>
+        <v>-0.7733616969526865</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.143370004246951</v>
+        <v>-1.146977783079586</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3179887579272634</v>
+        <v>-0.3219177473398987</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1922413190936114</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8337186249827613</v>
+        <v>-0.8374563480954875</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102339732796235</v>
+        <v>-1.102466756980144</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3520341593110724</v>
+        <v>-0.3562390978128895</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2109236800112253</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9655376068223622</v>
+        <v>-0.9723370507817241</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.09439415108551</v>
+        <v>-1.098004850014327</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3951669000126972</v>
+        <v>-0.3992199935130598</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2287330676889195</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.087740711935238</v>
+        <v>-1.095556349365873</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.094261286709237</v>
+        <v>-1.097231024526145</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4374893140238676</v>
+        <v>-0.4424782983505027</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2460853285880948</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.146906240723132</v>
+        <v>-1.153621001893221</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.13359936242259</v>
+        <v>-1.136147146341226</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4972388620481243</v>
+        <v>-0.5030936548926682</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2628393131731221</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.243121949865924</v>
+        <v>-1.248405863906923</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.1625696366424</v>
+        <v>-1.166276698745217</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5251885626523896</v>
+        <v>-0.5296241887525702</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.27911070446196</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.375498670076252</v>
+        <v>-1.38452468737425</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.123758638289865</v>
+        <v>-1.127792751165046</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.550145164670292</v>
+        <v>-0.5545895510590181</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2949912446696634</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.434643758190873</v>
+        <v>-1.443983685828416</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.203097651549844</v>
+        <v>-1.20919773247366</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6048736073099136</v>
+        <v>-0.6093384343719124</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3106550769848763</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.533826285054392</v>
+        <v>-1.542477069993025</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.294344817039274</v>
+        <v>-1.301485912251908</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6492795099468108</v>
+        <v>-0.6522258869942645</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3264283379078369</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.557492204559931</v>
+        <v>-1.56208697590202</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.364546849346346</v>
+        <v>-1.373218074958253</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6728738870958954</v>
+        <v>-0.6761560752042581</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3421828629498603</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.622782635089186</v>
+        <v>-1.625750912858003</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.447014745665142</v>
+        <v>-1.454979308001049</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6671534186757151</v>
+        <v>-0.6680177671455331</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3573958368126718</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677446835612807</v>
+        <v>-1.680876488578352</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.521550200706031</v>
+        <v>-1.528095596297575</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6925743159865264</v>
+        <v>-0.6941701485498897</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3715055328086921</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.711747745412525</v>
+        <v>-1.717360170273978</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.633052613360638</v>
+        <v>-1.641325245843726</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7346061804276061</v>
+        <v>-0.738764397390514</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3842436867447248</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.691244290071895</v>
+        <v>-1.69625079497562</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.727882736865157</v>
+        <v>-1.735505647947792</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7563214756836911</v>
+        <v>-0.7604607120214173</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3950968585081252</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.68068084213417</v>
+        <v>-1.687489046382078</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.779616620870325</v>
+        <v>-1.787430068228823</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7769796961219583</v>
+        <v>-0.7780601317092307</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4040543958989944</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.631588185125456</v>
+        <v>-1.637946694561363</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.850814405975397</v>
+        <v>-1.856937847668668</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7752831202403224</v>
+        <v>-0.7781623350755944</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4105869915461735</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.543205633990389</v>
+        <v>-1.548553790147388</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.952441053343097</v>
+        <v>-1.95756363207005</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7779725288237762</v>
+        <v>-0.7799508939869575</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4144683837998025</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.425270249447239</v>
+        <v>-1.431355729890146</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004675003819401</v>
+        <v>-2.009358838095037</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7644510234538707</v>
+        <v>-0.7653708537511432</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.415121546777223</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.288837515640366</v>
+        <v>-1.292446754521093</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.056435168690206</v>
+        <v>-2.061911809079204</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7511835664517834</v>
+        <v>-0.7523793458382376</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4121779735069589</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104491843682234</v>
+        <v>-1.104354599161689</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.081777223404108</v>
+        <v>-2.085375511924152</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7248019574971541</v>
+        <v>-0.724756696006336</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4055863706006867</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9415752975543686</v>
+        <v>-0.9381996663681877</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.078971740997427</v>
+        <v>-2.083841731404653</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6695989992279872</v>
+        <v>-0.6695639580738053</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.395162572224433</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6996832901411609</v>
+        <v>-0.6990014476827066</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.112630959661191</v>
+        <v>-2.116768735950826</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6120132424744572</v>
+        <v>-0.6141930942741839</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3808073507225777</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4425396203703209</v>
+        <v>-0.4409992696344122</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.114401997995463</v>
+        <v>-2.117268802421962</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5177218767154824</v>
+        <v>-0.5192432468262094</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3625450959397303</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1548897057880345</v>
+        <v>-0.1560066425775796</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.10072426747983</v>
+        <v>-2.104529152804738</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4494076865899554</v>
+        <v>-0.4511670445395004</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3406825762151913</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1441427437109762</v>
+        <v>0.141394933203886</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.037323139180211</v>
+        <v>-2.046588604365117</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3355341558357132</v>
+        <v>-0.3370993273891673</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.31591436995757</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4871460015157931</v>
+        <v>0.4811379036217038</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.979851266177772</v>
+        <v>-1.989755502402451</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2546431114550985</v>
+        <v>-0.2564024694046436</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2891351075858655</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7911893360628024</v>
+        <v>0.7840117396478953</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.908145384337064</v>
+        <v>-1.916296832828607</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1809019225756638</v>
+        <v>-0.1829868712494815</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2611199647730322</v>
       </c>
       <c r="E86" t="n">
-        <v>1.107170023801081</v>
+        <v>1.102030654521083</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.859338896754168</v>
+        <v>-1.869321975575756</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1059299131555931</v>
+        <v>-0.106010215800593</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2327590140715385</v>
       </c>
       <c r="E87" t="n">
-        <v>1.353306391014561</v>
+        <v>1.351547033065016</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.686980949646441</v>
+        <v>-1.702134788781983</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05949016352806007</v>
+        <v>-0.05911493116869653</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2036380357596031</v>
       </c>
       <c r="E88" t="n">
-        <v>1.576720029789228</v>
+        <v>1.574927090733592</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.506902998258035</v>
+        <v>-1.523511045292121</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01010448877319397</v>
+        <v>0.01068996805764836</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1739936561216478</v>
       </c>
       <c r="E89" t="n">
-        <v>1.76294478364036</v>
+        <v>1.757196574306452</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.27716297110546</v>
+        <v>-1.298203724143546</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06550455353463365</v>
+        <v>0.06546805233236093</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1434592660876639</v>
       </c>
       <c r="E90" t="n">
-        <v>1.944355758935765</v>
+        <v>1.937616176948131</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.049028996852885</v>
+        <v>-1.072512410347061</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09814830875117034</v>
+        <v>0.09799208360544311</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1127121125921145</v>
       </c>
       <c r="E91" t="n">
-        <v>2.127361106746444</v>
+        <v>2.120554362546627</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8252196850455817</v>
+        <v>-0.8488870645992117</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08127745306072032</v>
+        <v>0.08057662997708415</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08232259735311143</v>
       </c>
       <c r="E92" t="n">
-        <v>2.244875997439412</v>
+        <v>2.239841751621959</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6251960166872718</v>
+        <v>-0.6496474420657198</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09331116942598981</v>
+        <v>0.09430692222398955</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.053490296376543</v>
       </c>
       <c r="E93" t="n">
-        <v>2.34841092766193</v>
+        <v>2.344157807573113</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.376843296471793</v>
+        <v>-0.3997397706334233</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0445163622278211</v>
+        <v>0.0468495190770932</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02693759803931738</v>
       </c>
       <c r="E94" t="n">
-        <v>2.368947964108651</v>
+        <v>2.365671616192652</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2348726002561039</v>
+        <v>-0.2585107788479157</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009181738379739676</v>
+        <v>0.01082429248201196</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.003299428467175469</v>
       </c>
       <c r="E95" t="n">
-        <v>2.325006356764663</v>
+        <v>2.323125814823573</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.06942141064242104</v>
+        <v>-0.08978178127014284</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02771659697370496</v>
+        <v>-0.02653979821243255</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01725517160943809</v>
       </c>
       <c r="E96" t="n">
-        <v>2.226879444670872</v>
+        <v>2.22502956373969</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05041349646700133</v>
+        <v>0.02950560780518877</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06888703304114845</v>
+        <v>-0.06591875527233107</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03425415629701738</v>
       </c>
       <c r="E97" t="n">
-        <v>2.078018781514184</v>
+        <v>2.074024089937458</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1236217677932544</v>
+        <v>0.1084124468302585</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1240111487134064</v>
+        <v>-0.1205362342570437</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04677872920151657</v>
       </c>
       <c r="E98" t="n">
-        <v>1.885052985627327</v>
+        <v>1.881173637849783</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1907591591575091</v>
+        <v>0.1789940916409668</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1397679877104931</v>
+        <v>-0.1387999758262206</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.05449212859787758</v>
       </c>
       <c r="E99" t="n">
-        <v>1.687842829940198</v>
+        <v>1.682096080654381</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2017080597912334</v>
+        <v>0.1919271976302361</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.13426798655204</v>
+        <v>-0.1352374584844034</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.0561857249299845</v>
       </c>
       <c r="E100" t="n">
-        <v>1.52823183269015</v>
+        <v>1.519448183375243</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2265288773366813</v>
+        <v>0.2183175668734108</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1295447309779504</v>
+        <v>-0.1285956997188597</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.05229285609273949</v>
       </c>
       <c r="E101" t="n">
-        <v>1.384593761554643</v>
+        <v>1.373539737458373</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2189979492837743</v>
+        <v>0.2138337591862302</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1106181275755009</v>
+        <v>-0.1100049073773192</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04205887019303914</v>
       </c>
       <c r="E102" t="n">
-        <v>1.20125990292351</v>
+        <v>1.186533857878605</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2338276577431339</v>
+        <v>0.228628426491408</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1425712800450377</v>
+        <v>-0.1426647231228559</v>
       </c>
     </row>
   </sheetData>
